--- a/natmiOut/OldD7/LR-pairs_lrc2p/Angpt1-Tie1.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Angpt1-Tie1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -88,7 +91,7 @@
     <t>Tie1</t>
   </si>
   <si>
-    <t>ECs</t>
+    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>21.8780228513562</v>
+        <v>0.110507</v>
       </c>
       <c r="H2">
-        <v>21.8780228513562</v>
+        <v>0.331521</v>
       </c>
       <c r="I2">
-        <v>0.9317573987569101</v>
+        <v>0.004605687348208628</v>
       </c>
       <c r="J2">
-        <v>0.9317573987569101</v>
+        <v>0.004605687348208628</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>65.30832649865179</v>
+        <v>66.04433166666666</v>
       </c>
       <c r="N2">
-        <v>65.30832649865179</v>
+        <v>198.132995</v>
       </c>
       <c r="O2">
-        <v>0.9965320436566409</v>
+        <v>0.9905709103863496</v>
       </c>
       <c r="P2">
-        <v>0.9965320436566409</v>
+        <v>0.9905709103863498</v>
       </c>
       <c r="Q2">
-        <v>1428.817059521336</v>
+        <v>7.298360959488334</v>
       </c>
       <c r="R2">
-        <v>1428.817059521336</v>
+        <v>65.685248635395</v>
       </c>
       <c r="S2">
-        <v>0.9285261047754193</v>
+        <v>0.004562259909469913</v>
       </c>
       <c r="T2">
-        <v>0.9285261047754193</v>
+        <v>0.004562259909469913</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,10 +584,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -593,173 +596,669 @@
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>21.8780228513562</v>
+        <v>0.110507</v>
       </c>
       <c r="H3">
-        <v>21.8780228513562</v>
+        <v>0.331521</v>
       </c>
       <c r="I3">
-        <v>0.9317573987569101</v>
+        <v>0.004605687348208628</v>
       </c>
       <c r="J3">
-        <v>0.9317573987569101</v>
+        <v>0.004605687348208628</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.227274603558253</v>
+        <v>0.09667466666666667</v>
       </c>
       <c r="N3">
-        <v>0.227274603558253</v>
+        <v>0.290024</v>
       </c>
       <c r="O3">
-        <v>0.003467956343358978</v>
+        <v>0.001449982309679873</v>
       </c>
       <c r="P3">
-        <v>0.003467956343358978</v>
+        <v>0.001449982309679873</v>
       </c>
       <c r="Q3">
-        <v>4.97231897018038</v>
+        <v>0.01068322738933333</v>
       </c>
       <c r="R3">
-        <v>4.97231897018038</v>
+        <v>0.09614904650400001</v>
       </c>
       <c r="S3">
-        <v>0.003231293981490687</v>
+        <v>6.678165178818914E-06</v>
       </c>
       <c r="T3">
-        <v>0.003231293981490687</v>
+        <v>6.678165178818915E-06</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>1.60236258002801</v>
+        <v>0.110507</v>
       </c>
       <c r="H4">
-        <v>1.60236258002801</v>
+        <v>0.331521</v>
       </c>
       <c r="I4">
-        <v>0.0682426012430899</v>
+        <v>0.004605687348208628</v>
       </c>
       <c r="J4">
-        <v>0.0682426012430899</v>
+        <v>0.004605687348208628</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>65.30832649865179</v>
+        <v>0.02943566666666667</v>
       </c>
       <c r="N4">
-        <v>65.30832649865179</v>
+        <v>0.088307</v>
       </c>
       <c r="O4">
-        <v>0.9965320436566409</v>
+        <v>0.0004414930758175203</v>
       </c>
       <c r="P4">
-        <v>0.9965320436566409</v>
+        <v>0.0004414930758175204</v>
       </c>
       <c r="Q4">
-        <v>104.6476185456913</v>
+        <v>0.003252847216333333</v>
       </c>
       <c r="R4">
-        <v>104.6476185456913</v>
+        <v>0.029275624947</v>
       </c>
       <c r="S4">
-        <v>0.0680059388812216</v>
+        <v>2.033379073614465E-06</v>
       </c>
       <c r="T4">
-        <v>0.0680059388812216</v>
+        <v>2.033379073614466E-06</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G5">
+        <v>0.110507</v>
+      </c>
+      <c r="H5">
+        <v>0.331521</v>
+      </c>
+      <c r="I5">
+        <v>0.004605687348208628</v>
+      </c>
+      <c r="J5">
+        <v>0.004605687348208628</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>0.5025553333333334</v>
+      </c>
+      <c r="N5">
+        <v>1.507666</v>
+      </c>
+      <c r="O5">
+        <v>0.007537614228152894</v>
+      </c>
+      <c r="P5">
+        <v>0.007537614228152896</v>
+      </c>
+      <c r="Q5">
+        <v>0.05553588222066667</v>
+      </c>
+      <c r="R5">
+        <v>0.499822939986</v>
+      </c>
+      <c r="S5">
+        <v>3.471589448628112E-05</v>
+      </c>
+      <c r="T5">
+        <v>3.471589448628113E-05</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
         <v>21</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>22.14783133333333</v>
+      </c>
+      <c r="H6">
+        <v>66.443494</v>
+      </c>
+      <c r="I6">
+        <v>0.9230726249214253</v>
+      </c>
+      <c r="J6">
+        <v>0.9230726249214253</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>66.04433166666666</v>
+      </c>
+      <c r="N6">
+        <v>198.132995</v>
+      </c>
+      <c r="O6">
+        <v>0.9905709103863496</v>
+      </c>
+      <c r="P6">
+        <v>0.9905709103863498</v>
+      </c>
+      <c r="Q6">
+        <v>1462.738718276059</v>
+      </c>
+      <c r="R6">
+        <v>13164.64846448453</v>
+      </c>
+      <c r="S6">
+        <v>0.9143688904211337</v>
+      </c>
+      <c r="T6">
+        <v>0.9143688904211339</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>22.14783133333333</v>
+      </c>
+      <c r="H7">
+        <v>66.443494</v>
+      </c>
+      <c r="I7">
+        <v>0.9230726249214253</v>
+      </c>
+      <c r="J7">
+        <v>0.9230726249214253</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M7">
+        <v>0.09667466666666667</v>
+      </c>
+      <c r="N7">
+        <v>0.290024</v>
+      </c>
+      <c r="O7">
+        <v>0.001449982309679873</v>
+      </c>
+      <c r="P7">
+        <v>0.001449982309679873</v>
+      </c>
+      <c r="Q7">
+        <v>2.141134211539556</v>
+      </c>
+      <c r="R7">
+        <v>19.270207903856</v>
+      </c>
+      <c r="S7">
+        <v>0.001338438976685831</v>
+      </c>
+      <c r="T7">
+        <v>0.001338438976685831</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>22.14783133333333</v>
+      </c>
+      <c r="H8">
+        <v>66.443494</v>
+      </c>
+      <c r="I8">
+        <v>0.9230726249214253</v>
+      </c>
+      <c r="J8">
+        <v>0.9230726249214253</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.02943566666666667</v>
+      </c>
+      <c r="N8">
+        <v>0.088307</v>
+      </c>
+      <c r="O8">
+        <v>0.0004414930758175203</v>
+      </c>
+      <c r="P8">
+        <v>0.0004414930758175204</v>
+      </c>
+      <c r="Q8">
+        <v>0.6519361805175555</v>
+      </c>
+      <c r="R8">
+        <v>5.867425624658</v>
+      </c>
+      <c r="S8">
+        <v>0.0004075301723795123</v>
+      </c>
+      <c r="T8">
+        <v>0.0004075301723795124</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>22.14783133333333</v>
+      </c>
+      <c r="H9">
+        <v>66.443494</v>
+      </c>
+      <c r="I9">
+        <v>0.9230726249214253</v>
+      </c>
+      <c r="J9">
+        <v>0.9230726249214253</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.5025553333333334</v>
+      </c>
+      <c r="N9">
+        <v>1.507666</v>
+      </c>
+      <c r="O9">
+        <v>0.007537614228152894</v>
+      </c>
+      <c r="P9">
+        <v>0.007537614228152896</v>
+      </c>
+      <c r="Q9">
+        <v>11.13051075833378</v>
+      </c>
+      <c r="R9">
+        <v>100.174596825004</v>
+      </c>
+      <c r="S9">
+        <v>0.006957765351226174</v>
+      </c>
+      <c r="T9">
+        <v>0.006957765351226176</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1.735257333333333</v>
+      </c>
+      <c r="H10">
+        <v>5.205772</v>
+      </c>
+      <c r="I10">
+        <v>0.07232168773036617</v>
+      </c>
+      <c r="J10">
+        <v>0.07232168773036617</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>66.04433166666666</v>
+      </c>
+      <c r="N10">
+        <v>198.132995</v>
+      </c>
+      <c r="O10">
+        <v>0.9905709103863496</v>
+      </c>
+      <c r="P10">
+        <v>0.9905709103863498</v>
+      </c>
+      <c r="Q10">
+        <v>114.6039108496822</v>
+      </c>
+      <c r="R10">
+        <v>1031.43519764714</v>
+      </c>
+      <c r="S10">
+        <v>0.0716397600557461</v>
+      </c>
+      <c r="T10">
+        <v>0.07163976005574611</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
         <v>21</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>1.60236258002801</v>
-      </c>
-      <c r="H5">
-        <v>1.60236258002801</v>
-      </c>
-      <c r="I5">
-        <v>0.0682426012430899</v>
-      </c>
-      <c r="J5">
-        <v>0.0682426012430899</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>0.227274603558253</v>
-      </c>
-      <c r="N5">
-        <v>0.227274603558253</v>
-      </c>
-      <c r="O5">
-        <v>0.003467956343358978</v>
-      </c>
-      <c r="P5">
-        <v>0.003467956343358978</v>
-      </c>
-      <c r="Q5">
-        <v>0.3641763201324454</v>
-      </c>
-      <c r="R5">
-        <v>0.3641763201324454</v>
-      </c>
-      <c r="S5">
-        <v>0.0002366623618682909</v>
-      </c>
-      <c r="T5">
-        <v>0.0002366623618682909</v>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1.735257333333333</v>
+      </c>
+      <c r="H11">
+        <v>5.205772</v>
+      </c>
+      <c r="I11">
+        <v>0.07232168773036617</v>
+      </c>
+      <c r="J11">
+        <v>0.07232168773036617</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M11">
+        <v>0.09667466666666667</v>
+      </c>
+      <c r="N11">
+        <v>0.290024</v>
+      </c>
+      <c r="O11">
+        <v>0.001449982309679873</v>
+      </c>
+      <c r="P11">
+        <v>0.001449982309679873</v>
+      </c>
+      <c r="Q11">
+        <v>0.1677554242808889</v>
+      </c>
+      <c r="R11">
+        <v>1.509798818528</v>
+      </c>
+      <c r="S11">
+        <v>0.0001048651678152229</v>
+      </c>
+      <c r="T11">
+        <v>0.0001048651678152229</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1.735257333333333</v>
+      </c>
+      <c r="H12">
+        <v>5.205772</v>
+      </c>
+      <c r="I12">
+        <v>0.07232168773036617</v>
+      </c>
+      <c r="J12">
+        <v>0.07232168773036617</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.02943566666666667</v>
+      </c>
+      <c r="N12">
+        <v>0.088307</v>
+      </c>
+      <c r="O12">
+        <v>0.0004414930758175203</v>
+      </c>
+      <c r="P12">
+        <v>0.0004414930758175204</v>
+      </c>
+      <c r="Q12">
+        <v>0.05107845644488888</v>
+      </c>
+      <c r="R12">
+        <v>0.459706108004</v>
+      </c>
+      <c r="S12">
+        <v>3.192952436439357E-05</v>
+      </c>
+      <c r="T12">
+        <v>3.192952436439359E-05</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1.735257333333333</v>
+      </c>
+      <c r="H13">
+        <v>5.205772</v>
+      </c>
+      <c r="I13">
+        <v>0.07232168773036617</v>
+      </c>
+      <c r="J13">
+        <v>0.07232168773036617</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.5025553333333334</v>
+      </c>
+      <c r="N13">
+        <v>1.507666</v>
+      </c>
+      <c r="O13">
+        <v>0.007537614228152894</v>
+      </c>
+      <c r="P13">
+        <v>0.007537614228152896</v>
+      </c>
+      <c r="Q13">
+        <v>0.8720628275724445</v>
+      </c>
+      <c r="R13">
+        <v>7.848565448151999</v>
+      </c>
+      <c r="S13">
+        <v>0.0005451329824404386</v>
+      </c>
+      <c r="T13">
+        <v>0.0005451329824404387</v>
       </c>
     </row>
   </sheetData>
